--- a/biology/Botanique/Liseron_des_haies/Liseron_des_haies.xlsx
+++ b/biology/Botanique/Liseron_des_haies/Liseron_des_haies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calystegia sepium
 Calystegia sepium, le Liseron des haies, Grand liseron, ou Manchette de la Vierge, est une espèce de plantes herbacées grimpantes, vivaces, de la famille des Convolvulaceae, de la tribu des Convolvuleae, courante dans les buissons et les haies. Elle est aussi cultivée pour l'ornement des jardins.
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Calystegia sepium (L.) R.Br. 1810[1].
-L'espèce a été initialement classée dans le genre Convolvulus sous le basionyme Convolvulus sepium L.[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : grand liseron[2],[3], liseron des haies[2],[3], veillée[2], calystégie des haies[3], campanette[3], chemise[3], clochette[3], évenille[3], grande vrillée[3], grand lignot[3], liset[3], manchette de la Vierge[3], manchette de Notre-Dame[3].
-Calystegia sepium a pour synonymes homotypiques[1],[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Calystegia sepium (L.) R.Br. 1810.
+L'espèce a été initialement classée dans le genre Convolvulus sous le basionyme Convolvulus sepium L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : grand liseron liseron des haies veillée, calystégie des haies, campanette, chemise, clochette, évenille, grande vrillée, grand lignot, liset, manchette de la Vierge, manchette de Notre-Dame.
+Calystegia sepium a pour synonymes homotypiques, :
 Convolvulus sepium L. (basionyme)
 Volvulus sepium (L.) Medik.
 </t>
@@ -548,9 +562,11 @@
           <t>Liste des taxons infraspécifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des sous-espèces, variétés et formes selon GBIF       (15 mars 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces, variétés et formes selon GBIF       (15 mars 2022) :
 Calystegia sepium subsp. americana (Sims) Brummitt
 Calystegia sepium subsp. angulata Brummitt
 Calystegia sepium subsp. appalachiana Brummitt
@@ -567,7 +583,7 @@
 Calystegia sepium f. malachopylla (Fernald) D.Löve &amp; J.-P.Bernard
 Calystegia sepium f. schizoflora
 Calystegia sepium f. sepium
-Liste des sous-espèces selon Plants of the World online (POWO)                (15 mars 2022)[1] :
+Liste des sous-espèces selon Plants of the World online (POWO)                (15 mars 2022) :
 Calystegia sepium subsp. americana (Sims) Brummitt (1965)
 Calystegia sepium subsp. angulata Brummitt (1980)
 Calystegia sepium subsp. appalachiana Brummitt (1980)
@@ -604,7 +620,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante grimpante dont les tiges volubiles peuvent atteindre jusqu'à 5 m de long.
 Feuilles, alternes, sagittées (en forme de fer de flèche) à long pétiole, à limbe entier, à pointe aiguë, munies de deux oreillettes à la base. Ce limbe assez développé peut atteindre 10 cm de large et 15 cm de long.
@@ -639,7 +657,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante cosmopolite, spontanée dans toutes les régions tempérées, en Europe, Asie (Proche-Orient, Moyen-Orient, Caucase, Sibérie, Extrême-Orient), Afrique du Nord, Australie, Amérique du Nord et du Sud.
 Préfère les terrains fertiles, frais à humides.
@@ -671,7 +691,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivée comme plante ornementale pour son aspect très décoratif.
 Employée en médecine populaire comme purgatif doux.[réf. nécessaire]
